--- a/Execution.xlsx
+++ b/Execution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git Salve1\agent1-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907E97EE-5546-4D27-A495-27D7B5794376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBB5EFB-7859-4A9E-8B82-25AD753D316D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16654,7 +16654,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -16847,7 +16847,7 @@
       <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Execution.xlsx
+++ b/Execution.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git Salve1\agent1-repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitSlave1Vm1\agent1-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBB5EFB-7859-4A9E-8B82-25AD753D316D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785676B0-B841-4BB0-A6B1-193728F71232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16848,7 +16848,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">

--- a/Execution.xlsx
+++ b/Execution.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitSlave1Vm1\agent1-repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git Salve1\agent1-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785676B0-B841-4BB0-A6B1-193728F71232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3229017-1275-4A05-BA36-9D93E0767E24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Execution.xlsx
+++ b/Execution.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git Salve1\agent1-repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3229017-1275-4A05-BA36-9D93E0767E24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5500E2-FF2C-4640-AE5E-FCA14556659A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
   <si>
     <t>SL.NO</t>
   </si>
@@ -96,16 +96,46 @@
     <t>GL</t>
   </si>
   <si>
-    <t>CX</t>
+    <t>Master_GL.xlsx</t>
   </si>
   <si>
-    <t>Master_CX.xlsx</t>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Master_Manufacturing.xlsx</t>
+  </si>
+  <si>
+    <t>Reusable_Components</t>
   </si>
   <si>
     <t>AP</t>
   </si>
   <si>
     <t>Master_AP.xlsx</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Master_Inventory.xlsx</t>
+  </si>
+  <si>
+    <t>Costing</t>
+  </si>
+  <si>
+    <t>Master_Costing.xlsx</t>
+  </si>
+  <si>
+    <t>My Receiving</t>
+  </si>
+  <si>
+    <t>Master_MyReceiving_20D.xlsx</t>
+  </si>
+  <si>
+    <t>Order Management</t>
+  </si>
+  <si>
+    <t>Master_OrderManagement.xlsx</t>
   </si>
   <si>
     <t>YES</t>
@@ -223,9 +253,6 @@
   </si>
   <si>
     <t>JIR</t>
-  </si>
-  <si>
-    <t>Master_GeneralLedger.xlsx</t>
   </si>
 </sst>
 </file>
@@ -390,19 +417,16 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="45">
@@ -16651,10 +16675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -16813,7 +16837,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -16821,8 +16845,8 @@
       <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>25</v>
+      <c r="H6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -16833,22 +16857,22 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>13</v>
+      <c r="G7" t="s">
+        <v>24</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>25</v>
+      <c r="H7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -16859,21 +16883,121 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
+      <c r="G10" t="s">
+        <v>24</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -16899,176 +17023,176 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B15" s="3"/>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Execution.xlsx
+++ b/Execution.xlsx
@@ -16449,7 +16449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="H6" sqref="H6"/>
@@ -16530,7 +16530,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Master_Assets.xlsx</t>
+          <t>Master_NavigationForms.xlsx</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -16560,7 +16560,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>S2S</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -16650,7 +16650,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Master_Demo.xlsx</t>
+          <t>Master_Procurement_20C.xlsx</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -16680,7 +16680,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GL</t>
+          <t>CPQ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -16690,7 +16690,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Master_GL.xlsx</t>
+          <t>Master_Testcase1.xlsx</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -16730,14 +16730,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Master_CX.xlsx</t>
+          <t>Master_CX_Sales_20D.xlsx</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Reusable_Components.xlsx</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Reusable Components</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
     </row>
@@ -16752,7 +16760,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>CX Sales Cloud</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -16762,14 +16770,62 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Master_AP.xlsx</t>
+          <t>Master_Manufacturing.xlsx</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Reusable_Components.xlsx</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Reusable Components</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Selenium</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CX Service Cloud</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Master_COMP_TE.001_AccessValidation_20D.xlsx</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Reusable_Components.xlsx</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Reusable Components</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>
@@ -16798,27 +16854,27 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.95" r="1" s="2">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Parameters</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Unnamed: 2</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Unnamed: 3</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Unnamed: 4</t>
         </is>
@@ -16928,7 +16984,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>JIRA</t>
         </is>
       </c>
     </row>
@@ -16962,7 +17018,7 @@
           <t>UserName</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n"/>
+      <c r="B14" s="3" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -16970,7 +17026,7 @@
           <t>Password</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n"/>
+      <c r="B15" s="3" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
@@ -16983,7 +17039,7 @@
           <t>MailTo</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n"/>
+      <c r="B16" s="3" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
